--- a/Results/Jac_directed/Table_models.xlsx
+++ b/Results/Jac_directed/Table_models.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/agustin/Desktop/Papers/Canary_Island_Project/spatial_modularity_in_the_canary_islands/Results/Jac_directed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A54D1341-2C58-7B4A-A100-D85086D149EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D97BEE-DE39-1742-ADF6-E5B8B07001BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14440" yWindow="1360" windowWidth="28040" windowHeight="17440" activeTab="6" xr2:uid="{EB4D4A07-8EA4-EE43-B3EA-B2E3F1412D83}"/>
+    <workbookView xWindow="11420" yWindow="1340" windowWidth="28040" windowHeight="17440" activeTab="5" xr2:uid="{EB4D4A07-8EA4-EE43-B3EA-B2E3F1412D83}"/>
   </bookViews>
   <sheets>
     <sheet name="M1_ave_species" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="17">
   <si>
     <t>Model</t>
   </si>
@@ -157,7 +157,13 @@
     </r>
   </si>
   <si>
-    <t>E (0.901)</t>
+    <t>Empirical</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Weight interlayer link</t>
   </si>
 </sst>
 </file>
@@ -265,12 +271,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -825,7 +833,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:F3"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -986,7 +994,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A2" sqref="A2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1058,251 +1066,291 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1A82BA0-9448-5C45-8BA2-922112F81DB5}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="23.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="D2" s="2">
+        <v>-1.0200000000000001E-3</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2">
+        <v>19</v>
+      </c>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.63700000000000001</v>
+      </c>
+      <c r="D3" s="3">
+        <v>-1.15E-3</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="C4" s="10">
+        <v>0.64700000000000002</v>
+      </c>
+      <c r="D4" s="13">
+        <v>-1.09E-3</v>
+      </c>
+      <c r="E4" s="10">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="C5" s="10">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="D5" s="13">
+        <v>-1.17E-3</v>
+      </c>
+      <c r="E5" s="10">
+        <v>0.76</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="C6" s="10">
+        <v>0.68100000000000005</v>
+      </c>
+      <c r="D6" s="13">
+        <v>-1.24E-3</v>
+      </c>
+      <c r="E6" s="10">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
         <v>0.5</v>
       </c>
-      <c r="C2" s="3">
-        <v>-7.6817380000000005E-7</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0.65</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0.74</v>
-      </c>
-      <c r="C3" s="3">
-        <v>-8.3590000000000001E-7</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0.62</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="B4">
+      <c r="C7" s="10">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="D7" s="13">
+        <v>-1.1199999999999999E-3</v>
+      </c>
+      <c r="E7" s="10">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="C8" s="10">
+        <v>0.59399999999999997</v>
+      </c>
+      <c r="D8" s="13">
+        <v>-9.8499999999999998E-4</v>
+      </c>
+      <c r="E8" s="10">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="C9" s="10">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="D9" s="13">
+        <v>-9.4600000000000001E-4</v>
+      </c>
+      <c r="E9" s="10">
         <v>0.72</v>
       </c>
-      <c r="C4" s="11">
-        <v>-1.032E-6</v>
-      </c>
-      <c r="D4">
-        <v>0.71799999999999997</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="B5">
-        <v>6.62</v>
-      </c>
-      <c r="C5" s="11">
-        <v>-9.653000000000001E-7</v>
-      </c>
-      <c r="D5">
-        <v>0.6</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="B6">
-        <v>6.38</v>
-      </c>
-      <c r="C6" s="11">
-        <v>-9.0869999999999998E-7</v>
-      </c>
-      <c r="D6">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="B7">
-        <v>5.96</v>
-      </c>
-      <c r="C7" s="11">
-        <v>-8.7609999999999996E-7</v>
-      </c>
-      <c r="D7">
-        <v>0.61</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="10">
-        <v>0.6</v>
-      </c>
-      <c r="B8">
-        <v>5.84</v>
-      </c>
-      <c r="C8" s="11">
-        <v>-9.0380000000000003E-7</v>
-      </c>
-      <c r="D8">
-        <v>0.61</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
+      <c r="F9" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="C10" s="10">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="D10" s="13">
+        <v>-9.0899999999999998E-4</v>
+      </c>
+      <c r="E10" s="10">
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="C11" s="10">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D11" s="13">
+        <v>-9.2400000000000002E-4</v>
+      </c>
+      <c r="E11" s="10">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="10">
+        <v>1</v>
+      </c>
+      <c r="C12" s="10">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="D12" s="13">
+        <v>-8.9599999999999999E-4</v>
+      </c>
+      <c r="E12" s="10">
         <v>0.7</v>
       </c>
-      <c r="B9">
-        <v>5.62</v>
-      </c>
-      <c r="C9" s="11">
-        <v>-8.8859999999999995E-7</v>
-      </c>
-      <c r="D9">
-        <v>0.64</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="B10">
-        <v>5.31</v>
-      </c>
-      <c r="C10" s="11">
-        <v>-8.2360000000000004E-7</v>
-      </c>
-      <c r="D10">
-        <v>0.64700000000000002</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="B11">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="C11" s="11">
-        <v>-7.836E-7</v>
-      </c>
-      <c r="D11">
-        <v>0.66500000000000004</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <v>1</v>
-      </c>
-      <c r="B12">
-        <v>4.92</v>
-      </c>
-      <c r="C12" s="11">
-        <v>-7.5720000000000003E-7</v>
-      </c>
-      <c r="D12">
-        <v>0.64</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="2">
+      <c r="F12" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="2">
         <v>19</v>
       </c>
     </row>
@@ -1316,29 +1364,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86507568-4B9D-774E-B406-B889FB677538}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>4</v>
       </c>
     </row>
